--- a/data/Zipcode_UHF42.xlsx
+++ b/data/Zipcode_UHF42.xlsx
@@ -29,9 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kingsbridge-Riverdale</t>
-  </si>
-  <si>
     <t>zipcode1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,33 +49,9 @@
     <t>zipcode6</t>
   </si>
   <si>
-    <t>NE Bronx</t>
-  </si>
-  <si>
-    <t>Fordham-Bronx Park</t>
-  </si>
-  <si>
-    <t>Pelham-Throgs Neck</t>
-  </si>
-  <si>
-    <t>Crotona-Tremont</t>
-  </si>
-  <si>
-    <t>High-Bridge-Morisania</t>
-  </si>
-  <si>
-    <t>Hunts Point-Mott Haven</t>
-  </si>
-  <si>
     <t>Greenpoint</t>
   </si>
   <si>
-    <t>Downtown Heightts-Slope</t>
-  </si>
-  <si>
-    <t>Bedford Stuyvesant-Crown Heights</t>
-  </si>
-  <si>
     <t>East New York</t>
   </si>
   <si>
@@ -88,27 +61,6 @@
     <t>Borough Park</t>
   </si>
   <si>
-    <t>East Flatbush-Flatbush</t>
-  </si>
-  <si>
-    <t>Canarsie-Flatlands</t>
-  </si>
-  <si>
-    <t>Bensonhurst-Bay Ridge</t>
-  </si>
-  <si>
-    <t>Coney Island-Sheepshead Bay</t>
-  </si>
-  <si>
-    <t>Williamsburg-Bushwick</t>
-  </si>
-  <si>
-    <t>Washington Heights-Inwood</t>
-  </si>
-  <si>
-    <t>Central Harlem-Morningside Heights</t>
-  </si>
-  <si>
     <t>East Harlem</t>
   </si>
   <si>
@@ -118,70 +70,148 @@
     <t>Upper East Side</t>
   </si>
   <si>
-    <t>Chelsea-Clinton</t>
-  </si>
-  <si>
-    <t>Gramercy Park-Murray</t>
-  </si>
-  <si>
-    <t>Greenwich Village-Soho</t>
-  </si>
-  <si>
-    <t>Union Square-Lower East Side</t>
-  </si>
-  <si>
     <t>Lower Manhattan</t>
   </si>
   <si>
-    <t>Long Island City-Astoria</t>
-  </si>
-  <si>
     <t>West Queens</t>
   </si>
   <si>
-    <t>Flushing-Clearview</t>
-  </si>
-  <si>
-    <t>Bayside-Littleneck</t>
-  </si>
-  <si>
-    <t>Ridgewood-Forest Hills</t>
-  </si>
-  <si>
     <t>Fresh Meadows</t>
   </si>
   <si>
-    <t>SW Queens</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>SE Queens</t>
-  </si>
-  <si>
-    <t>Rockaway</t>
+    <t>Willowbrook</t>
+  </si>
+  <si>
+    <t>zipcode7</t>
+  </si>
+  <si>
+    <t>zipcode8</t>
+  </si>
+  <si>
+    <t>zipcode9</t>
+  </si>
+  <si>
+    <t>Kingsbridge - Riverdale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeast Bronx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pelham - Throgs Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunts Point - Mott Haven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bedford Stuyvesant - Crown Heights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East Flatbush - Flatbush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canarsie - Flatlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bensonhurst - Bay Ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coney Island - Sheepshead Bay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Williamsburg - Bushwick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington Heights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chelsea - Clinton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union Square - Lower East Side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Island City - Astoria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flushing - Clearview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridgewood - Forest Hills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southeast Queens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rockaways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Port Richmond</t>
-  </si>
-  <si>
-    <t>Stapleton St. George</t>
-  </si>
-  <si>
-    <t>Willowbrook</t>
-  </si>
-  <si>
-    <t>South Beach-Tottenville</t>
-  </si>
-  <si>
-    <t>zipcode7</t>
-  </si>
-  <si>
-    <t>zipcode8</t>
-  </si>
-  <si>
-    <t>zipcode9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stapleton - St. George</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Beach - Tottenville</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southwest Queens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crotona -Tremont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downtown - Heights - Slope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenwich Village - SoHo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gramercy Park - Murray Hill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayside - Little Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fordham - Bronx Pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Bridge - Morrisania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Harlem - Morningside Heights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,7 +540,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,31 +557,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -559,7 +589,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>10463</v>
@@ -573,7 +603,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>10464</v>
@@ -596,7 +626,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>10458</v>
@@ -613,7 +643,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>10461</v>
@@ -636,7 +666,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>10453</v>
@@ -653,7 +683,7 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>10451</v>
@@ -670,7 +700,7 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>10454</v>
@@ -690,7 +720,7 @@
         <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>11211</v>
@@ -704,7 +734,7 @@
         <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>11201</v>
@@ -727,7 +757,7 @@
         <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>11212</v>
@@ -750,7 +780,7 @@
         <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11207</v>
@@ -764,7 +794,7 @@
         <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>11220</v>
@@ -778,7 +808,7 @@
         <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>11204</v>
@@ -798,7 +828,7 @@
         <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>11203</v>
@@ -818,7 +848,7 @@
         <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>11234</v>
@@ -835,7 +865,7 @@
         <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>11209</v>
@@ -852,7 +882,7 @@
         <v>210</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>11223</v>
@@ -872,7 +902,7 @@
         <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>11206</v>
@@ -889,7 +919,7 @@
         <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>10031</v>
@@ -912,7 +942,7 @@
         <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>10026</v>
@@ -935,7 +965,7 @@
         <v>303</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>10029</v>
@@ -949,7 +979,7 @@
         <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>10023</v>
@@ -966,7 +996,7 @@
         <v>305</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>10021</v>
@@ -986,7 +1016,7 @@
         <v>306</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>10001</v>
@@ -1012,7 +1042,7 @@
         <v>307</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10010</v>
@@ -1032,7 +1062,7 @@
         <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>10012</v>
@@ -1049,7 +1079,7 @@
         <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>10002</v>
@@ -1066,7 +1096,7 @@
         <v>310</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>10004</v>
@@ -1118,7 +1148,7 @@
         <v>402</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>11368</v>
@@ -1147,7 +1177,7 @@
         <v>403</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>11354</v>
@@ -1176,7 +1206,7 @@
         <v>404</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>11361</v>
@@ -1196,7 +1226,7 @@
         <v>405</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>11374</v>
@@ -1216,7 +1246,7 @@
         <v>406</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>11365</v>
@@ -1233,7 +1263,7 @@
         <v>407</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>11414</v>
@@ -1265,7 +1295,7 @@
         <v>408</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>11412</v>
@@ -1300,7 +1330,7 @@
         <v>409</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>11004</v>
@@ -1335,7 +1365,7 @@
         <v>410</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>11691</v>
@@ -1361,7 +1391,7 @@
         <v>501</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>10302</v>
@@ -1378,7 +1408,7 @@
         <v>502</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>10301</v>
@@ -1395,7 +1425,7 @@
         <v>503</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>10314</v>
@@ -1406,7 +1436,7 @@
         <v>504</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>10306</v>
